--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\X-ET7\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4AA4A-C682-F045-B06D-DB60817BDE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B620BD-1D8E-4DE9-AA85-2B88D78703D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="4140" windowWidth="28760" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="4140" windowWidth="28755" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>LocalizeConfig_UI.csv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweetConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweetConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweetConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +296,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +347,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,24 +628,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
+    <col min="5" max="5" width="35.25" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="50.875" customWidth="1"/>
+    <col min="9" max="9" width="37.875" customWidth="1"/>
+    <col min="10" max="10" width="31.125" customWidth="1"/>
+    <col min="12" max="12" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -686,7 +723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,7 +749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -729,7 +766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -746,7 +783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -763,7 +800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -780,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -794,7 +831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -808,48 +845,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -862,46 +893,48 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -910,12 +943,46 @@
         <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>